--- a/Word-Printer/samples/Level4/08 ZRXX-20000-CM-P-01 配置管理程序记录/ZRXX-20000-CM-R-05 配置管理统计报表-基准文本.xlsx
+++ b/Word-Printer/samples/Level4/08 ZRXX-20000-CM-P-01 配置管理程序记录/ZRXX-20000-CM-R-05 配置管理统计报表-基准文本.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\WordPrinter\Word-Printer\samples\Level4\08 ZRXX-20000-CM-P-01 配置管理程序记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="配置管理统计报表" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">配置管理统计报表!$A$1:$J$30</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -69,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -740,24 +745,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="18" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="19" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="20" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="21" builtinId="17" customBuiltin="1"/>
@@ -772,15 +777,15 @@
     <cellStyle name="解释性文本" xfId="29" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="30" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="31" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="33" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="34" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="36" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="39" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="40" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="32" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="33" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="34" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="36" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="41" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,7 +802,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -836,11 +841,42 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-CB90-4F88-9F3D-A763E14D1C45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CB90-4F88-9F3D-A763E14D1C45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>配置管理统计报表!$B$9:$B$11</c:f>
@@ -876,6 +912,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB90-4F88-9F3D-A763E14D1C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -986,7 +1027,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1021,7 +1062,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1232,24 +1273,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1304,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1275,7 +1316,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
@@ -1289,7 +1330,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1298,7 +1339,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
@@ -1312,7 +1353,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1321,7 +1362,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="18" t="s">
         <v>1</v>
       </c>
@@ -1333,13 +1374,13 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1393,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1412,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1429,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +1440,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="18" t="s">
         <v>9</v>
       </c>
@@ -1410,12 +1451,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="2:6" ht="13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
@@ -1427,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
@@ -1439,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1451,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
         <v>8</v>
       </c>
@@ -1461,23 +1502,23 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:6" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:6" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
